--- a/Documents/ManageExpenseDatabaseTables.xlsx
+++ b/Documents/ManageExpenseDatabaseTables.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="TableDetails" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="PrePopulatedTable" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="213">
   <si>
     <t xml:space="preserve">TABLE_NAME</t>
   </si>
@@ -34,7 +35,13 @@
     <t xml:space="preserve">COLUMN_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">DATA_TYPE</t>
+    <t xml:space="preserve">ORACLE_DATA_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYSQL_DATA_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLLITE_DATA_TYPE</t>
   </si>
   <si>
     <t xml:space="preserve">COLUMN_DESC</t>
@@ -61,6 +68,9 @@
     <t xml:space="preserve">NUMBER</t>
   </si>
   <si>
+    <t xml:space="preserve">INTEGER</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unique identifiction of the user.</t>
   </si>
   <si>
@@ -76,6 +86,9 @@
     <t xml:space="preserve">VARCHAR2(1000 CHAR)</t>
   </si>
   <si>
+    <t xml:space="preserve">VARCHAR(2000)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Username of the user.</t>
   </si>
   <si>
@@ -91,6 +104,9 @@
     <t xml:space="preserve">VARCHAR2(200 CHAR)</t>
   </si>
   <si>
+    <t xml:space="preserve">VARCHAR(400)</t>
+  </si>
+  <si>
     <t xml:space="preserve">User First Name</t>
   </si>
   <si>
@@ -115,6 +131,9 @@
     <t xml:space="preserve">VARCHAR2(3000 CHAR)</t>
   </si>
   <si>
+    <t xml:space="preserve">VARCHAR2(6000)</t>
+  </si>
+  <si>
     <t xml:space="preserve">User Email Address</t>
   </si>
   <si>
@@ -124,6 +143,9 @@
     <t xml:space="preserve">VARCHAR2(50 CHAR)</t>
   </si>
   <si>
+    <t xml:space="preserve">VARCHAR(100)</t>
+  </si>
+  <si>
     <t xml:space="preserve">User Contact Number</t>
   </si>
   <si>
@@ -133,6 +155,9 @@
     <t xml:space="preserve">DATE</t>
   </si>
   <si>
+    <t xml:space="preserve">DATETIME</t>
+  </si>
+  <si>
     <t xml:space="preserve">Insert date and time of the record</t>
   </si>
   <si>
@@ -160,6 +185,9 @@
     <t xml:space="preserve">CHAR(1 CHAR)</t>
   </si>
   <si>
+    <t xml:space="preserve">CHAR(1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Income or Expense</t>
   </si>
   <si>
@@ -274,9 +302,18 @@
     <t xml:space="preserve">TRANS_AMT</t>
   </si>
   <si>
+    <t xml:space="preserve">NUMBER(10,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECIMAL(10,2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRANS_DESC</t>
   </si>
   <si>
+    <t xml:space="preserve">VARCHAR(8000)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transactrion Description</t>
   </si>
   <si>
@@ -284,6 +321,345 @@
   </si>
   <si>
     <t xml:space="preserve">ME_TRANS_MST_FK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME_CONFIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains the settings of the application bases of user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique identification of the settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME_CONFIG_PK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique identification of the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETTING_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR2(300 CHAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR(600)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting Attribute name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETTING_VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting Attribute value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollution Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Old Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grooming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Checkup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tution Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Festival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groceries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HealthCare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous Household Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gifts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Withdrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saving Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Card Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity Bills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas Bills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Recharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone Bills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Service Charge Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Withdrawal Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel Surcharge Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Recharge Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Saving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket Reversal</t>
   </si>
 </sst>
 </file>
@@ -293,7 +669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -320,13 +696,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -370,7 +764,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,6 +785,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -400,6 +806,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF66CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -408,25 +874,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1326530612245"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8520408163265"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.6122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.6122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.1581632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="25.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,815 +925,1053 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I24" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1276,4 +1982,1622 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D116"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Documents/ManageExpenseDatabaseTables.xlsx
+++ b/Documents/ManageExpenseDatabaseTables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TableDetails" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="199">
   <si>
     <t xml:space="preserve">TABLE_NAME</t>
   </si>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">Accessories</t>
   </si>
   <si>
-    <t xml:space="preserve">Down Payment</t>
+    <t xml:space="preserve">Misc</t>
   </si>
   <si>
     <t xml:space="preserve">Fuel</t>
@@ -386,180 +386,159 @@
     <t xml:space="preserve">Service</t>
   </si>
   <si>
-    <t xml:space="preserve">Sold Old Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan Payment</t>
+    <t xml:space="preserve">Loan EMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grooming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety and Health Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groceries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HealthCare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appliances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rent</t>
   </si>
   <si>
     <t xml:space="preserve">Insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grooming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shopping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Checkup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tution Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entertainment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Festival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groceries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Party</t>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortage</t>
   </si>
   <si>
     <t xml:space="preserve">Office</t>
   </si>
   <si>
-    <t xml:space="preserve">Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HealthCare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eye Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household</t>
+    <t xml:space="preserve">Computer</t>
   </si>
   <si>
     <t xml:space="preserve">Electronics</t>
   </si>
   <si>
-    <t xml:space="preserve">Home Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miscellaneous Household Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gifts</t>
+    <t xml:space="preserve">Furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stationary</t>
   </si>
   <si>
     <t xml:space="preserve">Others</t>
   </si>
   <si>
+    <t xml:space="preserve">Home Office</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personal</t>
   </si>
   <si>
     <t xml:space="preserve">Account Transfer</t>
   </si>
   <si>
-    <t xml:space="preserve">Cash Withdrawal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Accessories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saving Transfer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tax</t>
   </si>
   <si>
@@ -596,13 +575,13 @@
     <t xml:space="preserve">Utilities</t>
   </si>
   <si>
-    <t xml:space="preserve">Credit Card Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity Bills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas Bills</t>
+    <t xml:space="preserve">Credit Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas</t>
   </si>
   <si>
     <t xml:space="preserve">Internet</t>
@@ -611,42 +590,21 @@
     <t xml:space="preserve">Mobile Recharge</t>
   </si>
   <si>
-    <t xml:space="preserve">Telephone Bills</t>
+    <t xml:space="preserve">Telephone</t>
   </si>
   <si>
     <t xml:space="preserve">Vet</t>
   </si>
   <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Income</t>
   </si>
   <si>
-    <t xml:space="preserve">Bank Service Charge Reversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cash</t>
   </si>
   <si>
-    <t xml:space="preserve">Cash Withdrawal Reversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuel Surcharge Reversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan Reversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Recharge Reversal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pension</t>
   </si>
   <si>
@@ -659,7 +617,7 @@
     <t xml:space="preserve">Tax Refund</t>
   </si>
   <si>
-    <t xml:space="preserve">Ticket Reversal</t>
+    <t xml:space="preserve">Part-time</t>
   </si>
 </sst>
 </file>
@@ -764,7 +722,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -790,6 +748,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -876,7 +838,7 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
@@ -1989,12 +1951,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2144,25 +2106,25 @@
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>122</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>114</v>
+      <c r="B12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>123</v>
@@ -2176,10 +2138,10 @@
         <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +2152,7 @@
         <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>125</v>
@@ -2204,7 +2166,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>126</v>
@@ -2218,7 +2180,7 @@
         <v>111</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>127</v>
@@ -2232,10 +2194,10 @@
         <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,68 +2208,80 @@
         <v>111</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>130</v>
+      <c r="B19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>131</v>
+      <c r="B20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="B21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>133</v>
+      <c r="B22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>123</v>
+      <c r="B23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,10 +2292,10 @@
         <v>111</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,10 +2306,10 @@
         <v>111</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,10 +2320,10 @@
         <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,10 +2334,10 @@
         <v>111</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,7 +2348,7 @@
         <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>140</v>
@@ -2388,10 +2362,10 @@
         <v>111</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,7 +2376,7 @@
         <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>142</v>
@@ -2416,7 +2390,7 @@
         <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>143</v>
@@ -2430,10 +2404,10 @@
         <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,10 +2418,10 @@
         <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,10 +2432,10 @@
         <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,10 +2446,10 @@
         <v>111</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,10 +2460,10 @@
         <v>111</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,10 +2474,10 @@
         <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,10 +2488,10 @@
         <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,10 +2502,10 @@
         <v>111</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,10 +2516,10 @@
         <v>111</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,10 +2530,10 @@
         <v>111</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,10 +2544,10 @@
         <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,10 +2558,10 @@
         <v>111</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,10 +2572,10 @@
         <v>111</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,10 +2586,10 @@
         <v>111</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,10 +2600,10 @@
         <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,10 +2614,10 @@
         <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,10 +2628,10 @@
         <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,10 +2642,10 @@
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,7 +2656,7 @@
         <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>158</v>
@@ -2696,10 +2670,10 @@
         <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,10 +2684,10 @@
         <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,10 +2698,10 @@
         <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,10 +2712,10 @@
         <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,10 +2726,10 @@
         <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,10 +2740,10 @@
         <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,10 +2754,10 @@
         <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,10 +2768,10 @@
         <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,10 +2782,10 @@
         <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,10 +2796,10 @@
         <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,10 +2810,10 @@
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,10 +2824,10 @@
         <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,10 +2838,10 @@
         <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,10 +2852,10 @@
         <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,10 +2866,10 @@
         <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,10 +2880,10 @@
         <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,10 +2894,10 @@
         <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,10 +2908,10 @@
         <v>111</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,10 +2922,10 @@
         <v>111</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,10 +2936,10 @@
         <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,10 +2950,10 @@
         <v>111</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,10 +2964,10 @@
         <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,10 +2978,10 @@
         <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,10 +2992,10 @@
         <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,10 +3006,10 @@
         <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,10 +3020,10 @@
         <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,10 +3034,10 @@
         <v>111</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,10 +3048,10 @@
         <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,10 +3062,10 @@
         <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,10 +3076,10 @@
         <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,10 +3090,10 @@
         <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,10 +3104,10 @@
         <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,10 +3118,10 @@
         <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,10 +3132,10 @@
         <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,10 +3146,10 @@
         <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,10 +3160,10 @@
         <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,10 +3174,10 @@
         <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,10 +3188,10 @@
         <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3228,10 +3202,10 @@
         <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,7 +3219,7 @@
         <v>190</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,7 +3233,7 @@
         <v>190</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,7 +3247,7 @@
         <v>190</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,13 +3255,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,13 +3269,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,13 +3283,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>191</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,13 +3297,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,13 +3311,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,13 +3325,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>172</v>
+        <v>191</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,227 +3339,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
